--- a/bin/Evaluacion.xlsx
+++ b/bin/Evaluacion.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17460" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet name="Marks" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Estudiante</t>
   </si>
@@ -81,13 +81,10 @@
     <t>GitHub</t>
   </si>
   <si>
+    <t>Columna8</t>
+  </si>
+  <si>
     <t>Fernández España, Raúl</t>
-  </si>
-  <si>
-    <t>UO278036@uniovi.es</t>
-  </si>
-  <si>
-    <t>https://github.com/UO278036/alg_FernandezRaulUO278036</t>
   </si>
   <si>
     <r>
@@ -96,7 +93,7 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <color rgb="FFFF0000"/>
+        <color indexed="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -108,11 +105,92 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>. P12. La notación n**2 puede ser confusa para un no programador, no es aconsejable utilizarla. No se habla sobre el cociente de tiempos que era por lo que se preguntaba en esta práctica. bucle4 y bucle5 ok.</t>
+      <t>. P12. La notación n**2 puede ser confusa para un no programador, no es aconsejable utilizarla. No se habla sobre el cociente de tiempos que era por lo que se preguntaba en esta práctica. bucle4 y bucle5 ok. Recuperado con la doc de la siguiente práctica.</t>
     </r>
   </si>
   <si>
-    <t>Susp.</t>
+    <r>
+      <t xml:space="preserve">Implementación métodos ordenación OK. Incluye identificación en la doc, incluye características del procesador, sigue pegando tablas como imágenes. Se comentan tablas y gráficas, en quicksort mediana a 3 no debería haber ningún caso con complejidad O(n2). Ra´paido fatal está bien el primer párrafo que pones, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>pero mal en el que se indica que no afecta cuando el vector está ya ordenado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sus4 y Div4 ok. PDF tiempos bien. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tromino, no tiene clase de pruebas. Funcionamiento incorrecto: no rellena la matriz como se pide. Los tiempos medidos pierden el sentido</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pendiente de entregar por enfermedad. Es necesario main() en la clase principal o clase de prueba -&gt; corregido. Funcionamiento correcto. Documentación correcta salvo la última gráfica que no tiene sentido, de hecho da lugar a equivoco. Esto pasa para cualquier algoritmo de cualquier complejidad, si se repite el tiempo es proporcional.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Es necesario main() en la clase principal o clase de prueba y hacer una clase para medir tiempos aparte (DistanciaLevenshteinTiempos) como se indicó repetidamente en clase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. Funcionamiento correcto en las pruebas realizadas. Buen estudio de tiempos, pero vuelve a pegar tablas y gráficas como imágenes.</t>
+    </r>
+  </si>
+  <si>
+    <t>Algoritmo voraz bien estructura. Distribuye aleatoriamente imágenes. Backtracking, sigue esquema, pero sobra una llamada recursiva que además no cambia ningún parámetro. Construye una solución, pero cuando llega al nivel de solución ¡la sustituye por valores aleatorios!</t>
+  </si>
+  <si>
+    <t>Ejecución de medición de tiempos se ejecuta sin romper. Intento hacer una ejecución de prueba y me da errores de ejecución. Incluye documentación.</t>
+  </si>
+  <si>
+    <t>Mal, no sabe como hacer un main de prueba (lo confunde con tiempos). No cumple los requisitos pedidos: 8 imágenes y 3 de ellas error</t>
+  </si>
+  <si>
+    <t>Prácticas DV y backtracking suspensas y prueba final con problemas</t>
+  </si>
+  <si>
+    <t>UO278036@uniovi.es</t>
+  </si>
+  <si>
+    <t>https://github.com/UO278036/alg_FernandezRaulUO278036</t>
   </si>
 </sst>
 </file>
@@ -122,10 +200,38 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -178,19 +284,35 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
+      <color indexed="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -203,7 +325,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -221,19 +343,6 @@
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
@@ -278,155 +387,396 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
-    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
-    <cellStyle name="Hipervínculo 2" xfId="3"/>
-    <cellStyle name="Hipervínculo 3" xfId="4"/>
+  <cellStyles count="139">
+    <cellStyle name="Hipervínculo 2" xfId="2"/>
+    <cellStyle name="Hipervínculo 3" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="5"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Normal 3 2" xfId="7"/>
-    <cellStyle name="Normal 3 3" xfId="8"/>
-    <cellStyle name="Normal 3 4" xfId="9"/>
-    <cellStyle name="Normal 3 4 2" xfId="10"/>
-    <cellStyle name="Normal 3 4 2 2" xfId="41"/>
-    <cellStyle name="Normal 3 4 3" xfId="11"/>
-    <cellStyle name="Normal 3 5" xfId="12"/>
-    <cellStyle name="Normal 3 5 2" xfId="42"/>
-    <cellStyle name="Normal 4" xfId="13"/>
-    <cellStyle name="Normal 4 2" xfId="14"/>
-    <cellStyle name="Normal 4 2 2" xfId="15"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="16"/>
-    <cellStyle name="Normal 4 2 3" xfId="17"/>
-    <cellStyle name="Normal 4 3" xfId="18"/>
-    <cellStyle name="Normal 4 3 2" xfId="19"/>
-    <cellStyle name="Normal 4 3 3" xfId="20"/>
-    <cellStyle name="Normal 4 4" xfId="21"/>
-    <cellStyle name="Normal 4 4 2" xfId="22"/>
-    <cellStyle name="Normal 4 5" xfId="23"/>
+    <cellStyle name="Normal 2" xfId="4"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 3 2" xfId="6"/>
+    <cellStyle name="Normal 3 3" xfId="7"/>
+    <cellStyle name="Normal 3 4" xfId="8"/>
+    <cellStyle name="Normal 3 4 2" xfId="9"/>
+    <cellStyle name="Normal 3 4 2 2" xfId="39"/>
+    <cellStyle name="Normal 3 4 3" xfId="10"/>
+    <cellStyle name="Normal 3 5" xfId="11"/>
+    <cellStyle name="Normal 3 5 2" xfId="40"/>
+    <cellStyle name="Normal 4" xfId="12"/>
+    <cellStyle name="Normal 4 10" xfId="117"/>
+    <cellStyle name="Normal 4 2" xfId="13"/>
+    <cellStyle name="Normal 4 2 2" xfId="14"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="15"/>
+    <cellStyle name="Normal 4 2 2 2 2" xfId="45"/>
+    <cellStyle name="Normal 4 2 2 2 2 2" xfId="77"/>
+    <cellStyle name="Normal 4 2 2 2 2 3" xfId="99"/>
+    <cellStyle name="Normal 4 2 2 2 2 4" xfId="121"/>
+    <cellStyle name="Normal 4 2 2 2 3" xfId="44"/>
+    <cellStyle name="Normal 4 2 2 2 4" xfId="76"/>
+    <cellStyle name="Normal 4 2 2 2 5" xfId="98"/>
+    <cellStyle name="Normal 4 2 2 2 6" xfId="120"/>
+    <cellStyle name="Normal 4 2 2 3" xfId="46"/>
+    <cellStyle name="Normal 4 2 2 3 2" xfId="78"/>
+    <cellStyle name="Normal 4 2 2 3 3" xfId="100"/>
+    <cellStyle name="Normal 4 2 2 3 4" xfId="122"/>
+    <cellStyle name="Normal 4 2 2 4" xfId="43"/>
+    <cellStyle name="Normal 4 2 2 5" xfId="75"/>
+    <cellStyle name="Normal 4 2 2 6" xfId="97"/>
+    <cellStyle name="Normal 4 2 2 7" xfId="119"/>
+    <cellStyle name="Normal 4 2 3" xfId="16"/>
+    <cellStyle name="Normal 4 2 3 2" xfId="48"/>
+    <cellStyle name="Normal 4 2 3 2 2" xfId="80"/>
+    <cellStyle name="Normal 4 2 3 2 3" xfId="102"/>
+    <cellStyle name="Normal 4 2 3 2 4" xfId="124"/>
+    <cellStyle name="Normal 4 2 3 3" xfId="47"/>
+    <cellStyle name="Normal 4 2 3 4" xfId="79"/>
+    <cellStyle name="Normal 4 2 3 5" xfId="101"/>
+    <cellStyle name="Normal 4 2 3 6" xfId="123"/>
+    <cellStyle name="Normal 4 2 4" xfId="49"/>
+    <cellStyle name="Normal 4 2 4 2" xfId="81"/>
+    <cellStyle name="Normal 4 2 4 3" xfId="103"/>
+    <cellStyle name="Normal 4 2 4 4" xfId="125"/>
+    <cellStyle name="Normal 4 2 5" xfId="42"/>
+    <cellStyle name="Normal 4 2 6" xfId="74"/>
+    <cellStyle name="Normal 4 2 7" xfId="96"/>
+    <cellStyle name="Normal 4 2 8" xfId="118"/>
+    <cellStyle name="Normal 4 3" xfId="17"/>
+    <cellStyle name="Normal 4 3 2" xfId="18"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="52"/>
+    <cellStyle name="Normal 4 3 2 2 2" xfId="84"/>
+    <cellStyle name="Normal 4 3 2 2 3" xfId="106"/>
+    <cellStyle name="Normal 4 3 2 2 4" xfId="128"/>
+    <cellStyle name="Normal 4 3 2 3" xfId="51"/>
+    <cellStyle name="Normal 4 3 2 4" xfId="83"/>
+    <cellStyle name="Normal 4 3 2 5" xfId="105"/>
+    <cellStyle name="Normal 4 3 2 6" xfId="127"/>
+    <cellStyle name="Normal 4 3 3" xfId="19"/>
+    <cellStyle name="Normal 4 3 3 2" xfId="54"/>
+    <cellStyle name="Normal 4 3 3 2 2" xfId="86"/>
+    <cellStyle name="Normal 4 3 3 2 3" xfId="108"/>
+    <cellStyle name="Normal 4 3 3 2 4" xfId="130"/>
+    <cellStyle name="Normal 4 3 3 3" xfId="53"/>
+    <cellStyle name="Normal 4 3 3 4" xfId="85"/>
+    <cellStyle name="Normal 4 3 3 5" xfId="107"/>
+    <cellStyle name="Normal 4 3 3 6" xfId="129"/>
+    <cellStyle name="Normal 4 3 4" xfId="55"/>
+    <cellStyle name="Normal 4 3 4 2" xfId="87"/>
+    <cellStyle name="Normal 4 3 4 3" xfId="109"/>
+    <cellStyle name="Normal 4 3 4 4" xfId="131"/>
+    <cellStyle name="Normal 4 3 5" xfId="50"/>
+    <cellStyle name="Normal 4 3 6" xfId="82"/>
+    <cellStyle name="Normal 4 3 7" xfId="104"/>
+    <cellStyle name="Normal 4 3 8" xfId="126"/>
+    <cellStyle name="Normal 4 4" xfId="20"/>
+    <cellStyle name="Normal 4 4 2" xfId="21"/>
+    <cellStyle name="Normal 4 4 2 2" xfId="58"/>
+    <cellStyle name="Normal 4 4 2 2 2" xfId="90"/>
+    <cellStyle name="Normal 4 4 2 2 3" xfId="112"/>
+    <cellStyle name="Normal 4 4 2 2 4" xfId="134"/>
+    <cellStyle name="Normal 4 4 2 3" xfId="57"/>
+    <cellStyle name="Normal 4 4 2 4" xfId="89"/>
+    <cellStyle name="Normal 4 4 2 5" xfId="111"/>
+    <cellStyle name="Normal 4 4 2 6" xfId="133"/>
+    <cellStyle name="Normal 4 4 3" xfId="59"/>
+    <cellStyle name="Normal 4 4 3 2" xfId="91"/>
+    <cellStyle name="Normal 4 4 3 3" xfId="113"/>
+    <cellStyle name="Normal 4 4 3 4" xfId="135"/>
+    <cellStyle name="Normal 4 4 4" xfId="56"/>
+    <cellStyle name="Normal 4 4 5" xfId="88"/>
+    <cellStyle name="Normal 4 4 6" xfId="110"/>
+    <cellStyle name="Normal 4 4 7" xfId="132"/>
+    <cellStyle name="Normal 4 5" xfId="22"/>
+    <cellStyle name="Normal 4 5 2" xfId="61"/>
+    <cellStyle name="Normal 4 5 2 2" xfId="93"/>
+    <cellStyle name="Normal 4 5 2 3" xfId="115"/>
+    <cellStyle name="Normal 4 5 2 4" xfId="137"/>
+    <cellStyle name="Normal 4 5 3" xfId="60"/>
+    <cellStyle name="Normal 4 5 4" xfId="92"/>
+    <cellStyle name="Normal 4 5 5" xfId="114"/>
+    <cellStyle name="Normal 4 5 6" xfId="136"/>
+    <cellStyle name="Normal 4 6" xfId="62"/>
+    <cellStyle name="Normal 4 6 2" xfId="94"/>
+    <cellStyle name="Normal 4 6 3" xfId="116"/>
+    <cellStyle name="Normal 4 6 4" xfId="138"/>
+    <cellStyle name="Normal 4 7" xfId="41"/>
+    <cellStyle name="Normal 4 8" xfId="73"/>
+    <cellStyle name="Normal 4 9" xfId="95"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
-    <cellStyle name="Porcentaje 2" xfId="24"/>
-    <cellStyle name="Porcentaje 2 2" xfId="25"/>
-    <cellStyle name="Porcentaje 2 3" xfId="26"/>
-    <cellStyle name="Porcentaje 2 3 2" xfId="27"/>
-    <cellStyle name="Porcentaje 2 3 2 2" xfId="44"/>
-    <cellStyle name="Porcentaje 2 3 3" xfId="43"/>
-    <cellStyle name="Porcentaje 2 4" xfId="28"/>
-    <cellStyle name="Porcentaje 2 4 2" xfId="45"/>
-    <cellStyle name="Porcentaje 3" xfId="29"/>
-    <cellStyle name="Porcentaje 4" xfId="30"/>
-    <cellStyle name="Porcentaje 4 2" xfId="31"/>
-    <cellStyle name="Porcentaje 4 3" xfId="32"/>
-    <cellStyle name="Porcentaje 4 4" xfId="33"/>
-    <cellStyle name="Porcentaje 4 4 2" xfId="34"/>
-    <cellStyle name="Porcentaje 4 4 2 2" xfId="46"/>
-    <cellStyle name="Porcentaje 4 4 3" xfId="35"/>
-    <cellStyle name="Porcentaje 4 5" xfId="36"/>
-    <cellStyle name="Porcentaje 4 5 2" xfId="47"/>
-    <cellStyle name="Porcentaje 5" xfId="37"/>
-    <cellStyle name="Porcentaje 5 2" xfId="38"/>
-    <cellStyle name="Porcentaje 5 2 2" xfId="49"/>
-    <cellStyle name="Porcentaje 5 3" xfId="48"/>
-    <cellStyle name="Porcentaje 6" xfId="39"/>
-    <cellStyle name="Porcentaje 6 2" xfId="50"/>
-    <cellStyle name="Porcentaje 7" xfId="40"/>
+    <cellStyle name="Porcentaje 2" xfId="23"/>
+    <cellStyle name="Porcentaje 2 2" xfId="24"/>
+    <cellStyle name="Porcentaje 2 3" xfId="25"/>
+    <cellStyle name="Porcentaje 2 3 2" xfId="26"/>
+    <cellStyle name="Porcentaje 2 3 2 2" xfId="63"/>
+    <cellStyle name="Porcentaje 2 3 3" xfId="64"/>
+    <cellStyle name="Porcentaje 2 4" xfId="27"/>
+    <cellStyle name="Porcentaje 2 4 2" xfId="65"/>
+    <cellStyle name="Porcentaje 3" xfId="28"/>
+    <cellStyle name="Porcentaje 4" xfId="29"/>
+    <cellStyle name="Porcentaje 4 2" xfId="30"/>
+    <cellStyle name="Porcentaje 4 3" xfId="31"/>
+    <cellStyle name="Porcentaje 4 4" xfId="32"/>
+    <cellStyle name="Porcentaje 4 4 2" xfId="33"/>
+    <cellStyle name="Porcentaje 4 4 2 2" xfId="66"/>
+    <cellStyle name="Porcentaje 4 4 3" xfId="34"/>
+    <cellStyle name="Porcentaje 4 5" xfId="35"/>
+    <cellStyle name="Porcentaje 4 5 2" xfId="67"/>
+    <cellStyle name="Porcentaje 5" xfId="36"/>
+    <cellStyle name="Porcentaje 5 2" xfId="37"/>
+    <cellStyle name="Porcentaje 5 2 2" xfId="68"/>
+    <cellStyle name="Porcentaje 5 3" xfId="69"/>
+    <cellStyle name="Porcentaje 6" xfId="38"/>
+    <cellStyle name="Porcentaje 6 2" xfId="70"/>
+    <cellStyle name="Porcentaje 7" xfId="71"/>
+    <cellStyle name="Porcentaje 7 2" xfId="72"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="21">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="8"/>
+        </left>
+        <right style="thin">
+          <color indexed="8"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="8"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -729,26 +1079,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14515" displayName="Tabla14515" ref="A4:Q6" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A4:Q6"/>
-  <tableColumns count="17">
-    <tableColumn id="3" name="Estudiante" dataDxfId="16"/>
-    <tableColumn id="13" name="Prácticas 0, 1.1, 1.2 (Tiempos)" dataDxfId="15"/>
-    <tableColumn id="1" name="Columna1" dataDxfId="14"/>
-    <tableColumn id="14" name="Práctica 2 (Ordenación)" dataDxfId="13"/>
-    <tableColumn id="2" name="Columna2" dataDxfId="12"/>
-    <tableColumn id="15" name="Práctica 3 (DV)" dataDxfId="11"/>
-    <tableColumn id="4" name="Columna3" dataDxfId="10"/>
-    <tableColumn id="16" name="Práctica 4 (Devorador)" dataDxfId="9"/>
-    <tableColumn id="5" name="Columna4" dataDxfId="8"/>
-    <tableColumn id="17" name="Práctica 5 (Prog. dinámica)" dataDxfId="7"/>
-    <tableColumn id="6" name="Columna5" dataDxfId="6"/>
-    <tableColumn id="18" name="Práctica 6 (Backtracking)" dataDxfId="5"/>
-    <tableColumn id="7" name="Columna6" dataDxfId="4"/>
-    <tableColumn id="19" name="Práctica 7 (Ramificación y poda)" dataDxfId="3"/>
-    <tableColumn id="8" name="Columna7" dataDxfId="2"/>
-    <tableColumn id="24" name="Control prácticas" dataDxfId="1"/>
-    <tableColumn id="21" name="Nota ev. Continua" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabla14515" displayName="Tabla14515" ref="A4:R6" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A4:R6"/>
+  <tableColumns count="18">
+    <tableColumn id="3" name="Estudiante" dataDxfId="17"/>
+    <tableColumn id="13" name="Prácticas 0, 1.1, 1.2 (Tiempos)" dataDxfId="16"/>
+    <tableColumn id="1" name="Columna1" dataDxfId="15"/>
+    <tableColumn id="14" name="Práctica 2 (Ordenación)" dataDxfId="14"/>
+    <tableColumn id="2" name="Columna2" dataDxfId="13"/>
+    <tableColumn id="15" name="Práctica 3 (DV)" dataDxfId="12"/>
+    <tableColumn id="4" name="Columna3" dataDxfId="11"/>
+    <tableColumn id="16" name="Práctica 4 (Devorador)" dataDxfId="10"/>
+    <tableColumn id="5" name="Columna4" dataDxfId="9"/>
+    <tableColumn id="17" name="Práctica 5 (Prog. dinámica)" dataDxfId="8"/>
+    <tableColumn id="6" name="Columna5" dataDxfId="7"/>
+    <tableColumn id="18" name="Práctica 6 (Backtracking)" dataDxfId="6"/>
+    <tableColumn id="7" name="Columna6" dataDxfId="5"/>
+    <tableColumn id="19" name="Práctica 7 (Ramificación y poda)" dataDxfId="4"/>
+    <tableColumn id="8" name="Columna7" dataDxfId="3"/>
+    <tableColumn id="24" name="Control prácticas" dataDxfId="2"/>
+    <tableColumn id="21" name="Nota ev. Continua" dataDxfId="1"/>
+    <tableColumn id="9" name="Columna8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1041,16 +1392,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q137"/>
+  <dimension ref="A1:R137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
     <col min="3" max="3" width="7.140625" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="7.140625" customWidth="1"/>
@@ -1065,15 +1416,16 @@
     <col min="14" max="14" width="27.28515625" customWidth="1"/>
     <col min="15" max="15" width="7.140625" customWidth="1"/>
     <col min="16" max="16" width="23.85546875" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1099,7 +1451,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1151,183 +1503,219 @@
       <c r="Q4" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="R4" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="236.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>20</v>
+    <row r="5" spans="1:18" ht="157.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="16">
+        <v>5</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="E5" s="16">
+        <v>7</v>
+      </c>
+      <c r="F5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
+      <c r="G5" s="17">
+        <v>3</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="16">
+        <v>5</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="16">
+        <v>7</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="19">
+        <v>3</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="19">
+        <v>5</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>4</v>
+      </c>
+      <c r="R5" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="14"/>
+    <row r="6" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
+    <row r="7" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="11"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="11"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="11"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="11"/>
+      <c r="N7" s="8"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="11"/>
+      <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="11"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="11"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="8"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="11"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="11"/>
+      <c r="N8" s="8"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="11"/>
+      <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="11"/>
+    <row r="9" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="11"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="11"/>
+      <c r="J9" s="8"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="11"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="11"/>
+      <c r="N9" s="8"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="11"/>
+      <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
+    <row r="10" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="8"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="11"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="11"/>
+      <c r="J10" s="8"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="11"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="11"/>
+      <c r="N10" s="8"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="11"/>
+      <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="11"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="11"/>
+      <c r="J11" s="8"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="11"/>
+      <c r="L11" s="8"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="11"/>
+      <c r="N11" s="8"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="11"/>
+      <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
+    <row r="12" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="8"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="11"/>
+      <c r="J12" s="8"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="11"/>
+      <c r="L12" s="8"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="11"/>
+      <c r="N12" s="8"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="11"/>
+      <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
+    <row r="13" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="8"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="11"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="11"/>
+      <c r="J13" s="8"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="11"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="11"/>
+      <c r="N13" s="8"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="11"/>
+      <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
     </row>
     <row r="17" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1458,15 +1846,11 @@
     <row r="136" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="137" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>